--- a/biology/Botanique/Rosa_villosa/Rosa_villosa.xlsx
+++ b/biology/Botanique/Rosa_villosa/Rosa_villosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosier velu (Rosa villosa) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier appartenant à la section des Caninae, originaire d'Europe centrale et méridionale (de la France à la Roumanie) et d'Asie occidentale (Turquie, région du Caucase, Iran). On peut rencontrer ce rosier dans les régions de collines et montagnes de 400 à 1 500 mètres d'altitude.
 Il en existe de nombreuses variétés et sous-espèces.
@@ -515,12 +527,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau épineux formant un buisson de 0,75 à 1,5 mètre de haut, dont les tiges sont munies de nombreux aiguillons droits.
 Les feuilles imparipennées, d'un vert bleuté, comptent de 5 à 7 folioles à bords à double dentelure.
 Les fleurs, de 4 à 5 cm de diamètre, sont roses à centre clair et éclosent en juin - juillet.
-Elles donnent des fruits, des cynorrhodons ovoïdes ou globuleux, de 2,5 cm de diamètre[1], de couleur rouge à maturité, recouverts de poils glanduleux dressés, surmontés des sépales dressés. Ces fruits comestibles ont justifié le nom de Rosa pomifera également donné à l'espèce.
+Elles donnent des fruits, des cynorrhodons ovoïdes ou globuleux, de 2,5 cm de diamètre, de couleur rouge à maturité, recouverts de poils glanduleux dressés, surmontés des sépales dressés. Ces fruits comestibles ont justifié le nom de Rosa pomifera également donné à l'espèce.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa mollis originaire du nord de l’Europe, qui ressemble à Rosa pomifera avec des fleurs roses odorantes
 Rosa mollis  'Arduennensis' à fleurs blanches
